--- a/LifeHack-Powers.xlsx
+++ b/LifeHack-Powers.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seamus-adm\Documents\github\LifeHackWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F9B85-2117-44D4-892F-13E5CB33162D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -77,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,6 +180,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF00E668"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -227,7 +243,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -292,36 +307,11 @@
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
               <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:round/>
               </a:ln>
               <a:effectLst>
@@ -416,36 +406,11 @@
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
               <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:round/>
               </a:ln>
               <a:effectLst>
@@ -540,36 +505,11 @@
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:srgbClr val="00E668"/>
+              </a:solidFill>
               <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:round/>
               </a:ln>
               <a:effectLst>
@@ -670,36 +610,11 @@
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:round/>
               </a:ln>
               <a:effectLst>
@@ -836,7 +751,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -866,7 +780,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -950,7 +864,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -980,7 +893,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1027,7 +940,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1150,7 +1062,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1200,32 +1111,9 @@
             <c:v>405nm</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="FF00FF"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,28 +1128,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>at laser</c:v>
+                  <c:v>at AOTF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>at AOTF</c:v>
+                  <c:v>at Dichroic 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>at Dichroic 2</c:v>
+                  <c:v>at shutter</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>at shutter</c:v>
+                  <c:v>at back port</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>at back port</c:v>
+                  <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>at tube lens</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>at objective focal plane</c:v>
                 </c:pt>
               </c:strCache>
@@ -1301,32 +1186,9 @@
             <c:v>488nm</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,28 +1203,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>at laser</c:v>
+                  <c:v>at AOTF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>at AOTF</c:v>
+                  <c:v>at Dichroic 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>at Dichroic 2</c:v>
+                  <c:v>at shutter</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>at shutter</c:v>
+                  <c:v>at back port</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>at back port</c:v>
+                  <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>at tube lens</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>at objective focal plane</c:v>
                 </c:pt>
               </c:strCache>
@@ -1402,32 +1261,9 @@
             <c:v>560nm</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="00E668"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1442,28 +1278,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>at laser</c:v>
+                  <c:v>at AOTF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>at AOTF</c:v>
+                  <c:v>at Dichroic 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>at Dichroic 2</c:v>
+                  <c:v>at shutter</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>at shutter</c:v>
+                  <c:v>at back port</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>at back port</c:v>
+                  <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>at tube lens</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>at objective focal plane</c:v>
                 </c:pt>
               </c:strCache>
@@ -1509,32 +1342,9 @@
             <c:v>642nm</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1549,28 +1359,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>at laser</c:v>
+                  <c:v>at AOTF</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>at AOTF</c:v>
+                  <c:v>at Dichroic 2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>at Dichroic 2</c:v>
+                  <c:v>at shutter</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>at shutter</c:v>
+                  <c:v>at back port</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>at back port</c:v>
+                  <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>at tube lens</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>at objective focal plane</c:v>
                 </c:pt>
               </c:strCache>
@@ -1654,7 +1461,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1721,7 +1527,7 @@
         </c:txPr>
         <c:crossAx val="573729336"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -1772,7 +1578,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1845,7 +1650,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3017,7 +2821,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3047,7 +2857,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3327,32 +3143,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="K15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" customWidth="1"/>
+    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.54296875" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B2" s="2">
         <v>405</v>
       </c>
@@ -3414,7 +3230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3459,7 +3275,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3500,7 +3316,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3541,7 +3357,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3598,7 +3414,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3655,7 +3471,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3712,7 +3528,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3789,12 +3605,12 @@
         <v>8.9020771513353121E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B50" s="2">
         <v>405</v>
       </c>
@@ -3840,7 +3656,7 @@
       <c r="T50" s="9"/>
       <c r="U50" s="8"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -3867,7 +3683,7 @@
       <c r="T51" s="9"/>
       <c r="U51" s="8"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -3892,7 +3708,7 @@
       <c r="T52" s="9"/>
       <c r="U52" s="8"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -3917,7 +3733,7 @@
       <c r="T53" s="9"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -3942,7 +3758,7 @@
       <c r="T54" s="9"/>
       <c r="U54" s="8"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3967,7 +3783,7 @@
       <c r="T55" s="9"/>
       <c r="U55" s="8"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -3992,7 +3808,7 @@
       <c r="T56" s="9"/>
       <c r="U56" s="8"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>6</v>
       </c>

--- a/LifeHack-Powers.xlsx
+++ b/LifeHack-Powers.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seamus-adm\Documents\github\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F9B85-2117-44D4-892F-13E5CB33162D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>at laser</t>
   </si>
@@ -83,11 +82,23 @@
   <si>
     <t>400mm Beam Expansion lens, Multi-Band Dichroic, AOTF at Max, mW</t>
   </si>
+  <si>
+    <t>at first cube</t>
+  </si>
+  <si>
+    <t>at second cube</t>
+  </si>
+  <si>
+    <t>at objective</t>
+  </si>
+  <si>
+    <t>at sample plane</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,6 +254,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -325,9 +337,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>at laser</c:v>
                 </c:pt>
@@ -347,17 +359,26 @@
                   <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>at objective focal plane</c:v>
+                  <c:v>at first cube</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>at second cube</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>at objective</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>at sample plane</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:f>Sheet1!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -371,7 +392,16 @@
                   <c:v>76.116504854368941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.796116504854371</c:v>
+                  <c:v>72.038834951456309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.893203883495161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.97727272727272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.592233009708739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,9 +454,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>at laser</c:v>
                 </c:pt>
@@ -446,17 +476,26 @@
                   <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>at objective focal plane</c:v>
+                  <c:v>at first cube</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>at second cube</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>at objective</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>at sample plane</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$9</c:f>
+              <c:f>Sheet1!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -470,7 +509,16 @@
                   <c:v>78.292682926829272</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.585365853658537</c:v>
+                  <c:v>78.048780487804876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.865853658536594</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.380281690140848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.804878048780481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -523,9 +571,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>at laser</c:v>
                 </c:pt>
@@ -545,17 +593,26 @@
                   <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>at objective focal plane</c:v>
+                  <c:v>at first cube</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>at second cube</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>at objective</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>at sample plane</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$9</c:f>
+              <c:f>Sheet1!$I$3:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -575,7 +632,16 @@
                   <c:v>77.083333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.256944444444443</c:v>
+                  <c:v>73.958333333333343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.041666666666657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.958333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,9 +694,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>at laser</c:v>
                 </c:pt>
@@ -650,17 +716,26 @@
                   <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>at objective focal plane</c:v>
+                  <c:v>at first cube</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>at second cube</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>at objective</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>at sample plane</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$9</c:f>
+              <c:f>Sheet1!$L$3:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -680,7 +755,16 @@
                   <c:v>69.990503323836663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.003798670465336</c:v>
+                  <c:v>69.705603038936374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.65527065527067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.040835707502382</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.20987654320988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,6 +835,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -864,6 +949,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -940,6 +1026,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1062,6 +1149,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1128,9 +1216,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$9</c:f>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>at AOTF</c:v>
                 </c:pt>
@@ -1147,17 +1235,26 @@
                   <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>at objective focal plane</c:v>
+                  <c:v>at first cube</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>at second cube</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>at objective</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>at sample plane</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$9</c:f>
+              <c:f>Sheet1!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="2">
                   <c:v>14.563106796116504</c:v>
                 </c:pt>
@@ -1168,7 +1265,16 @@
                   <c:v>7.7647058823529349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.795918367346943</c:v>
+                  <c:v>5.3571428571428603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1428571428571379</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5152394775036448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.672811059907843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,9 +1309,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$9</c:f>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>at AOTF</c:v>
                 </c:pt>
@@ -1222,17 +1328,26 @@
                   <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>at objective focal plane</c:v>
+                  <c:v>at first cube</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>at second cube</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>at objective</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>at sample plane</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$9</c:f>
+              <c:f>Sheet1!$G$4:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="2">
                   <c:v>13.414634146341465</c:v>
                 </c:pt>
@@ -1243,7 +1358,16 @@
                   <c:v>8.0887616320687066</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.498442367601243</c:v>
+                  <c:v>0.31152647975078324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23437499999999778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2826938136256834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.858108108108112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,9 +1402,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$9</c:f>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>at AOTF</c:v>
                 </c:pt>
@@ -1297,17 +1421,26 @@
                   <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>at objective focal plane</c:v>
+                  <c:v>at first cube</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>at second cube</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>at objective</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>at sample plane</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$9</c:f>
+              <c:f>Sheet1!$J$4:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>5.208333333333333</c:v>
                 </c:pt>
@@ -1324,7 +1457,16 @@
                   <c:v>2.2026431718061676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.63963963963964</c:v>
+                  <c:v>4.0540540540540482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8169014084506943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3698630136986172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.722222222222229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,9 +1501,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$9</c:f>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>at AOTF</c:v>
                 </c:pt>
@@ -1378,17 +1520,26 @@
                   <c:v>at tube lens</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>at objective focal plane</c:v>
+                  <c:v>at first cube</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>at second cube</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>at objective</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>at sample plane</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$M$9</c:f>
+              <c:f>Sheet1!$M$4:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.8822412155745463</c:v>
                 </c:pt>
@@ -1405,7 +1556,16 @@
                   <c:v>5.6338028169013983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.274084124830388</c:v>
+                  <c:v>0.4070556309362241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3623978201634876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2849462365591435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.41403026134801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,6 +1621,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1578,6 +1739,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1650,6 +1812,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2810,13 +2973,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2846,13 +3009,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3143,32 +3306,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" customWidth="1"/>
-    <col min="17" max="17" width="15.7265625" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>405</v>
       </c>
@@ -3230,7 +3393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3275,7 +3438,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3304,7 +3467,7 @@
         <v>92.117758784425448</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M8" si="1">((K3-K4)/K3)*100</f>
+        <f t="shared" ref="M4:M6" si="1">((K3-K4)/K3)*100</f>
         <v>7.8822412155745463</v>
       </c>
       <c r="N4" s="2"/>
@@ -3316,7 +3479,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3357,7 +3520,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3414,7 +3577,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3426,7 +3589,7 @@
         <v>82.524271844660191</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:D8" si="2">((B6-B7)/B6)*100</f>
+        <f>((B6-B7)/B6)*100</f>
         <v>3.4090909090909087</v>
       </c>
       <c r="E7" s="5">
@@ -3437,7 +3600,7 @@
         <v>85.182926829268297</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:G8" si="3">((E6-E7)/E6)*100</f>
+        <f>((E6-E7)/E6)*100</f>
         <v>1.6197183098591628</v>
       </c>
       <c r="H7" s="2">
@@ -3448,7 +3611,7 @@
         <v>78.819444444444443</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" ref="J7:J8" si="4">((H6-H7)/H6)*100</f>
+        <f>((H6-H7)/H6)*100</f>
         <v>10.629921259842517</v>
       </c>
       <c r="K7" s="5">
@@ -3459,7 +3622,7 @@
         <v>74.169040835707506</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="1"/>
+        <f>((K6-K7)/K6)*100</f>
         <v>2.8606965174129493</v>
       </c>
       <c r="N7" s="2"/>
@@ -3471,7 +3634,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3483,7 +3646,7 @@
         <v>76.116504854368941</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="2"/>
+        <f>((B7-B8)/B7)*100</f>
         <v>7.7647058823529349</v>
       </c>
       <c r="E8" s="5">
@@ -3494,7 +3657,7 @@
         <v>78.292682926829272</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="3"/>
+        <f>((E7-E8)/E7)*100</f>
         <v>8.0887616320687066</v>
       </c>
       <c r="H8" s="2">
@@ -3505,7 +3668,7 @@
         <v>77.083333333333329</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="4"/>
+        <f>((H7-H8)/H7)*100</f>
         <v>2.2026431718061676</v>
       </c>
       <c r="K8" s="5">
@@ -3516,7 +3679,7 @@
         <v>69.990503323836663</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="1"/>
+        <f>((K7-K8)/K7)*100</f>
         <v>5.6338028169013983</v>
       </c>
       <c r="N8" s="2"/>
@@ -3528,202 +3691,296 @@
       <c r="T8" s="5"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>27.6</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="5">
+        <v>74.2</v>
       </c>
       <c r="C9" s="3">
         <f>(B9/B3)*100</f>
-        <v>26.796116504854371</v>
+        <v>72.038834951456309</v>
       </c>
       <c r="D9" s="4">
-        <f>((B8-B9)/B8)*100</f>
-        <v>64.795918367346943</v>
+        <f t="shared" ref="D9:D12" si="2">((B8-B9)/B8)*100</f>
+        <v>5.3571428571428603</v>
       </c>
       <c r="E9" s="5">
-        <v>76.400000000000006</v>
+        <v>128</v>
       </c>
       <c r="F9" s="3">
         <f>(E9/E3)*100</f>
-        <v>46.585365853658537</v>
+        <v>78.048780487804876</v>
       </c>
       <c r="G9" s="4">
-        <f>((E8-E9)/E8)*100</f>
-        <v>40.498442367601243</v>
+        <f t="shared" ref="G9:G12" si="3">((E8-E9)/E8)*100</f>
+        <v>0.31152647975078324</v>
       </c>
       <c r="H9" s="2">
-        <v>7.85</v>
+        <v>21.3</v>
       </c>
       <c r="I9" s="3">
         <f>(H9/H3)*100</f>
-        <v>27.256944444444443</v>
+        <v>73.958333333333343</v>
       </c>
       <c r="J9" s="4">
-        <f>((H8-H9)/H8)*100</f>
-        <v>64.63963963963964</v>
+        <f t="shared" ref="J9:J12" si="4">((H8-H9)/H8)*100</f>
+        <v>4.0540540540540482</v>
       </c>
       <c r="K9" s="5">
-        <v>33.700000000000003</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="L9" s="3">
         <f>(K9/K3)*100</f>
-        <v>32.003798670465336</v>
+        <v>69.705603038936374</v>
       </c>
       <c r="M9" s="4">
-        <f>((K8-K9)/K8)*100</f>
-        <v>54.274084124830388</v>
-      </c>
-      <c r="N9" s="2">
+        <f t="shared" ref="M9:M12" si="5">((K8-K9)/K8)*100</f>
+        <v>0.4070556309362241</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="C10" s="3">
+        <f>(B10/B3)*100</f>
+        <v>66.893203883495161</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571379</v>
+      </c>
+      <c r="E10" s="5">
+        <v>127.7</v>
+      </c>
+      <c r="F10" s="3">
+        <f>(E10/E3)*100</f>
+        <v>77.865853658536594</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>0.23437499999999778</v>
+      </c>
+      <c r="H10" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="I10" s="3">
+        <f>(H10/H3)*100</f>
+        <v>76.041666666666657</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.8169014084506943</v>
+      </c>
+      <c r="K10" s="5">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="L10" s="3">
+        <f>(K10/K3)*100</f>
+        <v>70.65527065527067</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.3623978201634876</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C9:C11" si="6">(B11/B6)*100</f>
+        <v>73.97727272727272</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5152394775036448</v>
+      </c>
+      <c r="E11" s="5">
+        <v>118.4</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ref="F9:F11" si="7">(E11/E6)*100</f>
+        <v>83.380281690140848</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="3"/>
+        <v>7.2826938136256834</v>
+      </c>
+      <c r="H11" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="I11" s="3">
+        <f>(H11/H3)*100</f>
+        <v>75</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3698630136986172</v>
+      </c>
+      <c r="K11" s="5">
+        <v>72.7</v>
+      </c>
+      <c r="L11" s="3">
+        <f>(K11/K3)*100</f>
+        <v>69.040835707502382</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="5"/>
+        <v>2.2849462365591435</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="C12" s="3">
+        <f>(B12/B3)*100</f>
+        <v>23.592233009708739</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>62.672811059907843</v>
+      </c>
+      <c r="E12" s="5">
+        <v>86.6</v>
+      </c>
+      <c r="F12" s="3">
+        <f>(E12/E3)*100</f>
+        <v>52.804878048780481</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="3"/>
+        <v>26.858108108108112</v>
+      </c>
+      <c r="H12" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="I12" s="3">
+        <f>(H12/H3)*100</f>
+        <v>48.958333333333329</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="4"/>
+        <v>34.722222222222229</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45.5</v>
+      </c>
+      <c r="L12" s="3">
+        <f>(K12/K3)*100</f>
+        <v>43.20987654320988</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="5"/>
+        <v>37.41403026134801</v>
+      </c>
+      <c r="N12" s="2">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="O9" s="3">
-        <f>(N9/H9)*100</f>
-        <v>1.6560509554140127E-3</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="O12" s="3">
+        <f>(N12/H12)*100</f>
+        <v>9.2198581560283674E-4</v>
+      </c>
+      <c r="P12" s="5">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="Q9" s="3">
-        <f>(P9/K9)*100</f>
-        <v>8.9020771513353121E-5</v>
-      </c>
-      <c r="R9" s="2">
+      <c r="Q12" s="3">
+        <f>(P12/K12)*100</f>
+        <v>6.5934065934065942E-5</v>
+      </c>
+      <c r="R12" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="S9" s="3">
-        <f>(R9/H9)*100</f>
-        <v>6.3694267515923574E-4</v>
-      </c>
-      <c r="T9" s="5">
+      <c r="S12" s="3">
+        <f>(R12/H12)*100</f>
+        <v>3.5460992907801421E-4</v>
+      </c>
+      <c r="T12" s="5">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="U9" s="3">
-        <f>(T9/K9)*100</f>
-        <v>8.9020771513353121E-5</v>
+      <c r="U12" s="3">
+        <f>(T12/K12)*100</f>
+        <v>6.5934065934065942E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B50" s="2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
         <v>405</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E53" s="5">
         <v>488</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H53" s="2">
         <v>560</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K53" s="5">
         <v>642</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="6" t="s">
+      <c r="M53" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N50" s="7"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="8"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="2">
-        <v>25</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="8"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="8"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="6"/>
       <c r="N53" s="7"/>
       <c r="O53" s="8"/>
       <c r="P53" s="9"/>
@@ -3733,9 +3990,9 @@
       <c r="T53" s="9"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
@@ -3743,7 +4000,9 @@
       <c r="E54" s="5"/>
       <c r="F54" s="3"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <v>25</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="4"/>
       <c r="K54" s="5"/>
@@ -3758,9 +4017,9 @@
       <c r="T54" s="9"/>
       <c r="U54" s="8"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
@@ -3783,9 +4042,9 @@
       <c r="T55" s="9"/>
       <c r="U55" s="8"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
@@ -3808,54 +4067,22 @@
       <c r="T56" s="9"/>
       <c r="U56" s="8"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="2">
-        <v>21</v>
-      </c>
-      <c r="C57" s="3" t="e">
-        <f>(B57/B51)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D57" s="4" t="e">
-        <f>((B56-B57)/B56)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E57" s="5">
-        <v>51.9</v>
-      </c>
-      <c r="F57" s="3" t="e">
-        <f>(E57/E51)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" s="4" t="e">
-        <f>((E56-E57)/E56)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H57" s="2">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I57" s="3">
-        <f>(H57/H51)*100</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="J57" s="4" t="e">
-        <f>((H56-H57)/H56)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" s="5">
-        <v>26.8</v>
-      </c>
-      <c r="L57" s="3" t="e">
-        <f>(K57/K51)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M57" s="6" t="e">
-        <f>((K56-K57)/K56)*100</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="6"/>
       <c r="N57" s="7"/>
       <c r="O57" s="8"/>
       <c r="P57" s="9"/>
@@ -3865,6 +4092,113 @@
       <c r="T57" s="9"/>
       <c r="U57" s="8"/>
     </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="8"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="8"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2">
+        <v>21</v>
+      </c>
+      <c r="C60" s="3" t="e">
+        <f>(B60/B54)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="4" t="e">
+        <f>((B59-B60)/B59)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E60" s="5">
+        <v>51.9</v>
+      </c>
+      <c r="F60" s="3" t="e">
+        <f>(E60/E54)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G60" s="4" t="e">
+        <f>((E59-E60)/E59)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H60" s="2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I60" s="3">
+        <f>(H60/H54)*100</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J60" s="4" t="e">
+        <f>((H59-H60)/H59)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="5">
+        <v>26.8</v>
+      </c>
+      <c r="L60" s="3" t="e">
+        <f>(K60/K54)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M60" s="6" t="e">
+        <f>((K59-K60)/K59)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" s="7"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/LifeHack-Powers.xlsx
+++ b/LifeHack-Powers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seamus-adm\Documents\github\LifeHackWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\TestOffline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
         <c:axId val="571536120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7"/>
+          <c:max val="10"/>
           <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1215,39 +1215,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>at AOTF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>at Dichroic 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>at shutter</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>at back port</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>at tube lens</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>at first cube</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>at second cube</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>at objective</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>at sample plane</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>1-&gt;2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2-&gt;3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3(1)-&gt;4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4-&gt;5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5-&gt;6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6-&gt;7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7-&gt;8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8-&gt;9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9-&gt;10</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1308,39 +1305,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>at AOTF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>at Dichroic 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>at shutter</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>at back port</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>at tube lens</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>at first cube</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>at second cube</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>at objective</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>at sample plane</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>1-&gt;2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2-&gt;3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3(1)-&gt;4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4-&gt;5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5-&gt;6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6-&gt;7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7-&gt;8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8-&gt;9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9-&gt;10</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1401,39 +1395,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>at AOTF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>at Dichroic 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>at shutter</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>at back port</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>at tube lens</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>at first cube</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>at second cube</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>at objective</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>at sample plane</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>1-&gt;2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2-&gt;3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3(1)-&gt;4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4-&gt;5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5-&gt;6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6-&gt;7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7-&gt;8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8-&gt;9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9-&gt;10</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1500,39 +1491,36 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>at AOTF</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>at Dichroic 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>at shutter</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>at back port</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>at tube lens</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>at first cube</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>at second cube</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>at objective</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>at sample plane</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="9"/>
+              <c:pt idx="0">
+                <c:v>1-&gt;2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2-&gt;3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3(1)-&gt;4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4-&gt;5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5-&gt;6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6-&gt;7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7-&gt;8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8-&gt;9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9-&gt;10</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3007,8 +2995,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1136650</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
@@ -3310,28 +3298,28 @@
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1796875" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" customWidth="1"/>
+    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.54296875" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B2" s="2">
         <v>405</v>
       </c>
@@ -3393,7 +3381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +3426,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3479,7 +3467,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3520,7 +3508,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3577,7 +3565,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3634,7 +3622,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3691,7 +3679,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3740,15 +3728,15 @@
         <v>0.4070556309362241</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="5"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="5"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3797,15 +3785,15 @@
         <v>-1.3623978201634876</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="5"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3813,7 +3801,7 @@
         <v>65.099999999999994</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C9:C11" si="6">(B11/B6)*100</f>
+        <f t="shared" ref="C11" si="6">(B11/B6)*100</f>
         <v>73.97727272727272</v>
       </c>
       <c r="D11" s="4">
@@ -3824,7 +3812,7 @@
         <v>118.4</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ref="F9:F11" si="7">(E11/E6)*100</f>
+        <f t="shared" ref="F11" si="7">(E11/E6)*100</f>
         <v>83.380281690140848</v>
       </c>
       <c r="G11" s="4">
@@ -3854,15 +3842,15 @@
         <v>2.2849462365591435</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="5"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3939,12 +3927,12 @@
         <v>6.5934065934065942E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B53" s="2">
         <v>405</v>
       </c>
@@ -3990,7 +3978,7 @@
       <c r="T53" s="9"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4017,7 +4005,7 @@
       <c r="T54" s="9"/>
       <c r="U54" s="8"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -4042,7 +4030,7 @@
       <c r="T55" s="9"/>
       <c r="U55" s="8"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -4067,7 +4055,7 @@
       <c r="T56" s="9"/>
       <c r="U56" s="8"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -4092,7 +4080,7 @@
       <c r="T57" s="9"/>
       <c r="U57" s="8"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -4117,7 +4105,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="8"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4142,7 +4130,7 @@
       <c r="T59" s="9"/>
       <c r="U59" s="8"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>6</v>
       </c>

--- a/LifeHack-Powers.xlsx
+++ b/LifeHack-Powers.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\TestOffline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshe\Documents\GitHub\LifeHackWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD42C4-78E4-4994-AD46-57B3C52BF82F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19430" windowHeight="10430"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,7 +255,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -835,7 +835,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -949,7 +948,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1026,7 +1024,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1149,7 +1146,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1609,7 +1605,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1727,7 +1722,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1800,7 +1794,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3294,32 +3287,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" customWidth="1"/>
-    <col min="17" max="17" width="15.7265625" customWidth="1"/>
-    <col min="18" max="18" width="13.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.54296875" customWidth="1"/>
-    <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>405</v>
       </c>
@@ -3381,7 +3374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +3419,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3467,7 +3460,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3508,7 +3501,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3565,7 +3558,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3622,7 +3615,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3679,7 +3672,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3736,7 +3729,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3793,7 +3786,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3850,7 +3843,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3927,12 +3920,12 @@
         <v>6.5934065934065942E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>405</v>
       </c>
@@ -3978,7 +3971,7 @@
       <c r="T53" s="9"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4005,7 +3998,7 @@
       <c r="T54" s="9"/>
       <c r="U54" s="8"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -4030,7 +4023,7 @@
       <c r="T55" s="9"/>
       <c r="U55" s="8"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -4055,7 +4048,7 @@
       <c r="T56" s="9"/>
       <c r="U56" s="8"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -4080,7 +4073,7 @@
       <c r="T57" s="9"/>
       <c r="U57" s="8"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -4105,7 +4098,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="8"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4130,7 +4123,7 @@
       <c r="T59" s="9"/>
       <c r="U59" s="8"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
